--- a/Content_Calendar.xlsx
+++ b/Content_Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\content calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48880507-3C8C-46D7-BEDA-948D19004381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958121C6-4A35-43DF-8172-92E721CD594B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38940" yWindow="3795" windowWidth="38700" windowHeight="15345" xr2:uid="{FA463503-EEA9-4E36-AF77-605EC82561F6}"/>
+    <workbookView xWindow="-38400" yWindow="3075" windowWidth="38700" windowHeight="15345" xr2:uid="{FA463503-EEA9-4E36-AF77-605EC82561F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feed List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="174">
   <si>
     <t>Category</t>
   </si>
@@ -519,9 +519,6 @@
   </si>
   <si>
     <t>"And hope does not disappoint us, because God has poured out his love into our hearts by the Holy Spirit, whom he has given us." \n\n- Romans 5:5 (NIV) #SundayScripture</t>
-  </si>
-  <si>
-    <t>Happy Friday! 💚</t>
   </si>
   <si>
     <t>“My children were malnourished and we hardly ate one meal a day,” says Betty in Uganda. \n\nBetty and Michal struggled to feed their daughters and pay school fees. But everything changed when kind people like you helped change their lives with gifts from the Food for the Hungry Gift Catalog.\n\nChickens to lay eggs. Seeds to grow vegetables. Tools and training to build a future.\n\n“Now we eat two meals a day. My children are healthy. We have hope,” Betty shares. 🫶 \n\nThis Christmas, you can give a gift that puts food on the table and changes lives.</t>
@@ -972,7 +969,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,9 +1111,7 @@
       <c r="F3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1166,7 +1161,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>23</v>
@@ -1217,7 +1212,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>23</v>
@@ -1268,7 +1263,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>23</v>
@@ -1319,7 +1314,7 @@
         <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>23</v>
@@ -1370,7 +1365,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>23</v>
@@ -1421,7 +1416,7 @@
         <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>23</v>
@@ -1472,7 +1467,7 @@
         <v>88</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>23</v>
@@ -1523,7 +1518,7 @@
         <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>23</v>
@@ -1574,7 +1569,7 @@
         <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>23</v>
@@ -1625,7 +1620,7 @@
         <v>69</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>23</v>
@@ -1676,7 +1671,7 @@
         <v>73</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>23</v>
@@ -1727,7 +1722,7 @@
         <v>77</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>23</v>
@@ -1778,7 +1773,7 @@
         <v>80</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>23</v>

--- a/Content_Calendar.xlsx
+++ b/Content_Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\content calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958121C6-4A35-43DF-8172-92E721CD594B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247CAF2E-6C34-445C-A683-9F505FC16D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="3075" windowWidth="38700" windowHeight="15345" xr2:uid="{FA463503-EEA9-4E36-AF77-605EC82561F6}"/>
+    <workbookView xWindow="-225" yWindow="6015" windowWidth="38700" windowHeight="15345" xr2:uid="{FA463503-EEA9-4E36-AF77-605EC82561F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feed List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="175">
   <si>
     <t>Category</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>“My children were malnourished and we hardly ate one meal a day,” says Betty in Uganda. \n\nBetty and Michal struggled to feed their daughters and pay school fees. But everything changed when kind people like you helped change their lives with gifts from the Food for the Hungry Gift Catalog. \n \n Chickens to lay eggs. Seeds to grow vegetables. Tools and training to build a future. \n \n “Now we eat two meals a day. My children are healthy. We have hope,” Betty shares. 🫶 \n\nThis Christmas, you can give a gift that puts food on the table and changes lives.</t>
+  </si>
+  <si>
+    <t>testing this update</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1114,9 @@
       <c r="F3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>

--- a/Content_Calendar.xlsx
+++ b/Content_Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\content calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF458E2-0CD0-4105-80DF-211BE1FC93F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CCD139-98FE-412A-A38D-7015430C64AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{FA463503-EEA9-4E36-AF77-605EC82561F6}"/>
+    <workbookView xWindow="39780" yWindow="3480" windowWidth="35550" windowHeight="15345" xr2:uid="{FA463503-EEA9-4E36-AF77-605EC82561F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feed List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="169">
   <si>
     <t>Category</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-6/579197204_1253435613494620_6316244457004268795_n.jpg?stp=dst-jpg_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=cBhqjosWtkoQ7kNvwGzA9K8&amp;_nc_oc=Adn5Jqv41MwcQboS9azj39EWfAocDApVs-Vbkm40nys0di4mQW1XUfbEanbSFmFk9GE&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=-U3J0aJHFxbOZXd7RkwgKw&amp;oh=00_AfioA2rJE3YKgor9XaA7KNkODBYOZt2OKdWZMC6JHcV3-g&amp;oe=69223FFB</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -119,24 +116,12 @@
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid02eBN8Lwmt7ryc8az1hbHpagtitDx9guE8DJfiWRaJsiW79UZ5jkQdBwF9WR3NZqWpl</t>
   </si>
   <si>
-    <t>https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/571274168_1245232777648237_1183351717403930507_n.jpg?stp=dst-jpg_p180x540_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=PwCg54XLZ-MQ7kNvwEXq0Qx&amp;_nc_oc=Adks4yR9oCA_uIlrhjUqVwG9U8iR8iUijcl81oLTU-KcJL_aNAs1KEAaH7vPotV2xiI&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=fr5FHjAqOfpZ9g3HQtVfhg&amp;oh=00_AfiYI5Spfh4UhZOSQDtUqm41fYxWFbdYN2fj3PlfLPx2dg&amp;oe=692273DA</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/foodforthehungry/posts/pfbid0Ueetshbkur6a1ciimYHgw56YQkT1DgP7s3DzQPwxQehWjwSANtJ5yG7uxjrN57jXl</t>
-  </si>
-  <si>
     <t>Programs</t>
   </si>
   <si>
-    <t>Org_Giving_Jan3</t>
-  </si>
-  <si>
     <t>Gifts That Change Lives</t>
   </si>
   <si>
-    <t>https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-6/579667014_1252428546928660_7922092204018469006_n.jpg?stp=cp6_dst-jpg_s640x640_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=S9eP81R10LkQ7kNvwF7IKUE&amp;_nc_oc=AdnlokKnTd8LLnkyXqudKsdNTAVKHimZExPE0DaN5wd76SC1YaLxlrs-q5OA8-ndqq8&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=-U3J0aJHFxbOZXd7RkwgKw&amp;oh=00_Afg3RIrAMLNelv8mVEDUZMDVaGmCzbzZVcqsO2YOKVG7cw&amp;oe=69225421</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid0aKV8Vw7AEJezeJfTctQecgvBr4Ky2HFSnxbihuWwXb9TLy1dDw3AHdxLGQ4uzrtzl</t>
   </si>
   <si>
@@ -149,18 +134,12 @@
     <t>From Hunger to Hope</t>
   </si>
   <si>
-    <t>“My children were malnourished and we hardly ate one meal a day... Now we eat two meals a day and have hope.” – Betty in Uganda</t>
-  </si>
-  <si>
     <t>Org_Spiritual_Jan6</t>
   </si>
   <si>
     <t>Blessed Are the Pure in Heart</t>
   </si>
   <si>
-    <t>https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/485351963_1058963739608476_5001569310143130200_n.jpg?stp=dst-jpg_p180x540_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=833d8c&amp;_nc_ohc=ON-PAN57p7kQ7kNvwGkzF0q&amp;_nc_oc=Adn3vE0DWfsyhXj8YTqvd54305epZKuRA5JjvUR0eb4npWehl-ZvPxvI3040n4PAHTo&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=YtF_6W04qqadtBSUBgmadg&amp;oh=00_Afj8BDErcpHlJ9S1WS-DOx1AOgHByh2yhn9MiFcBywo7Hg&amp;oe=69226470</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid0rXM7UriVwQcB9AxnsJxX3vr9Ti6PGfrvkiJt4RXYt8uXnk7N3H5qFgEVmPqYjHTNl</t>
   </si>
   <si>
@@ -170,9 +149,6 @@
     <t>Through a Child's Eyes: Beauty Captured</t>
   </si>
   <si>
-    <t>https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-6/574571248_1242965847874930_1292180463714229138_n.jpg?stp=dst-jpg_p526x296_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=guCnJcbgWgMQ7kNvwEVbxRu&amp;_nc_oc=Adm4Un0CZdr1nQLl8JTP9eWwKvjZFcJRtoewJE5BqKx9JGNNfcCvTToLJdEoMYKUXcY&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=fr5FHjAqOfpZ9g3HQtVfhg&amp;oh=00_Afj5aW-bI8JERqYiZKkQDjpnXuORinnfx7lFiIQhbhM_9Q&amp;oe=69225C75</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid0gDe8pth4pBB81eYQuscPFYGxCu8kCUrX9Xv1bdfZCKkwL1PyEyPSELyzKJm4dUMHl</t>
   </si>
   <si>
@@ -182,21 +158,9 @@
     <t>Deepening Faith One Bible at a Time</t>
   </si>
   <si>
-    <t>https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-6/582553013_1259478952890286_7132793167626584852_n.jpg?stp=dst-jpg_s960x960_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=HZY-tuyyC4IQ7kNvwH4ZS3z&amp;_nc_oc=AdlJwB7ft8ClsIJRq_OCKWnIwPhdDXhVWNQmeQvcGF3WUL3QpPy9Z0WJYU-1QwA52HAC-CdRQeYV_mEb8hd-g_6R&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=tjUwZzL9zxb4rroC1fj9Hg&amp;oh=00_Afj8kR8XRy_FzKYO4e0Pfm4Izf2F4_OOGMWyeYP_6l8LJA&amp;oe=69227301</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid0sqU3J7mR1pG69YpvPWWnsVEn6t1nYdy155eZHnFXmTTryJNfBzeFg4Z5swV1iWTml</t>
   </si>
   <si>
-    <t>Org_Giving_Jan10</t>
-  </si>
-  <si>
-    <t>Make Room for Love</t>
-  </si>
-  <si>
-    <t>https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-6/557579978_1260024492835732_8285543716364546752_n.jpg?stp=dst-jpg_p526x296_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=xLHR2UZJPEQQ7kNvwF8jrua&amp;_nc_oc=Adm_ae5LWzDhDRSk6saCieDmX6a_heQe9yUZMyGra21oW_EQQmGwNdoRxq2QStTzXsofiHb-GUVN10EQY344zsQx&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=tjUwZzL9zxb4rroC1fj9Hg&amp;oh=00_Afj2UGnJ3WK-ndx9XdH73jV14bsKGGrx_9DNlPNk9kkIlA&amp;oe=692271AB</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid0djherYK1P9iKiGdHeSzu2uQmuyFhkNkxu19A6FkTgMRNmZJvM3ja9Gui7yeL9MWel</t>
   </si>
   <si>
@@ -206,9 +170,6 @@
     <t>Safe Water Means More Time in School</t>
   </si>
   <si>
-    <t>https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/484904809_1058966789608171_2514655095303461968_n.jpg?stp=dst-jpg_p526x296_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=833d8c&amp;_nc_ohc=U1ycgnILslsQ7kNvwHrMz7a&amp;_nc_oc=AdkIaUhaggYhVL0g9f4monYoUYB3DXKcnr8Z2zYyo_KDdMVEd1RlRy0EySvV1hrGBZE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=YtF_6W04qqadtBSUBgmadg&amp;oh=00_AfgqZPShrqvPgPrKyq-Qf9KMQetBdeWUssWmMRGRqB-ZWQ&amp;oe=692241F7</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid0j7pnLzyzW5FVKRrhyiWLCKTSKoyRUqWXbNLG4C16Ns8zuW7arY3TAhP2Qs5i8G7Jl</t>
   </si>
   <si>
@@ -218,9 +179,6 @@
     <t>Clean Water: A Foundation for Thriving</t>
   </si>
   <si>
-    <t>https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/568273049_1237193248452190_4438941239538307129_n.jpg?stp=cp6_dst-jpg_p843x403_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=gApI6Cpx5W8Q7kNvwGrvKly&amp;_nc_oc=AdnXGfXfpWk0kMmdffuiRlb8977e-deph6XfNQ6R-lxUOyTysskO4RbvY5ZIQ9z8iHY&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=2aZPtYWGFnHLn5hCDYDSHw&amp;oh=00_AfgHgUOrNAMshf5f3KEZoSU-vbAhBZ54bDPr-n7mZmZW8w&amp;oe=692254BA</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid02Ah7gAQ9sn21jkdHXUQa3Dn9cuPyLXYbCyKqy2PUBaq9zbvdX6UJLJ2AHFTcGrgL9l</t>
   </si>
   <si>
@@ -230,9 +188,6 @@
     <t>Faith Guides the Way Forward</t>
   </si>
   <si>
-    <t>https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-6/582044966_1257935269711321_8918830454834630243_n.jpg?stp=dst-jpg_s590x590_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=833d8c&amp;_nc_ohc=X4ar8vW5xMMQ7kNvwFkCOsm&amp;_nc_oc=AdmpbNqrrEcbP5GpWRqRgERdAtitX4F-OjYe-U89iO9Badh7PRi1D9MXyj1GFyUepQM&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=-U3J0aJHFxbOZXd7RkwgKw&amp;oh=00_AfgdjzAmm5Z4iCufQ3oKb-sQtIwl7iupIN0r3JreWOhhnw&amp;oe=692274C7</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid0tXsgw722Wa9bMjcQ5ph4zakXjdyCTX392vEgpViJShyWBLvLi9EcfETn2RbjMrQTl</t>
   </si>
   <si>
@@ -242,18 +197,9 @@
     <t>Chita's View of Beauty</t>
   </si>
   <si>
-    <t>Org_Impact_Jan15</t>
-  </si>
-  <si>
     <t>Chickens Spark Family Transformation</t>
   </si>
   <si>
-    <t>“Now we eat two meals a day. My children are healthy.” – Story of hope from Betty and Michal's family.</t>
-  </si>
-  <si>
-    <t>https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-6/584894158_1258444442993737_9047630011089101986_n.jpg?stp=dst-jpg_s565x565_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=oK0J_tXwpX8Q7kNvwGxEfao&amp;_nc_oc=Adn-ka7u4GXqg3HrSmN2K-LYLzB04WFh3_4SuhPyMRjAUHM7qbgzDIh7Er8YrH1bluhFKz-0RpzVjraUioM8sPf6&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=tjUwZzL9zxb4rroC1fj9Hg&amp;oh=00_AfgI85pMgDbO_xZPLQfhkzgqAQMO7wfMrx-e2fOW-xTZGg&amp;oe=692260C7</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid0Prw2y5fnEABdZgCC2qtzwBT62VKaTvX2RvearwJwBMm3BTMK2nFuQ9kKNUeqHFbRl</t>
   </si>
   <si>
@@ -278,42 +224,12 @@
     <t>Inspired by Scripture, families are finding hope and support in their spiritual journeys together.</t>
   </si>
   <si>
-    <t>Org_Giving_Jan18</t>
-  </si>
-  <si>
     <t>Transform Lives with Meaningful Gifts</t>
   </si>
   <si>
-    <t>Your gift can provide nutrition, income, and lasting hope to families in need.</t>
-  </si>
-  <si>
-    <t>Org_Education_Jan19</t>
-  </si>
-  <si>
-    <t>Education Opens Doors to Dreams</t>
-  </si>
-  <si>
-    <t>School supplies and safe learning spaces help children pursue their God-given potential.</t>
-  </si>
-  <si>
-    <t>Org_Impact_Jan20</t>
-  </si>
-  <si>
-    <t>Seeds of Change for Families</t>
-  </si>
-  <si>
-    <t>A simple gift of seeds helped this family grow food and build a sustainable future.</t>
-  </si>
-  <si>
     <t>Org_Spiritual_Jan21</t>
   </si>
   <si>
-    <t>Strength in God's Word</t>
-  </si>
-  <si>
-    <t>Access to Bibles brings lasting hope and transformation to entire communities.</t>
-  </si>
-  <si>
     <t>Org_Greeting_Jan22</t>
   </si>
   <si>
@@ -326,42 +242,9 @@
     <t>Clean water saves lives and allows more time for education and family.</t>
   </si>
   <si>
-    <t>Org_Giving_Jan25</t>
-  </si>
-  <si>
     <t>Give Hope That Lasts</t>
   </si>
   <si>
-    <t>Choose a gift that sparks transformation for years to come.</t>
-  </si>
-  <si>
-    <t>Org_Education_Jan26</t>
-  </si>
-  <si>
-    <t>Learning Changes Everything</t>
-  </si>
-  <si>
-    <t>With support, children are staying in school and dreaming bigger.</t>
-  </si>
-  <si>
-    <t>Org_Impact_Jan27</t>
-  </si>
-  <si>
-    <t>Goats Bring Income and Dignity</t>
-  </si>
-  <si>
-    <t>One family's story of overcoming poverty through a simple gift.</t>
-  </si>
-  <si>
-    <t>Org_Spiritual_Jan28</t>
-  </si>
-  <si>
-    <t>Hope in Every Season</t>
-  </si>
-  <si>
-    <t>God's love brings light even in the hardest places.</t>
-  </si>
-  <si>
     <t>Org_Greeting_Jan29</t>
   </si>
   <si>
@@ -374,27 +257,12 @@
     <t>Communities Rising Together</t>
   </si>
   <si>
-    <t>Through partnership, entire villages are walking out of poverty with dignity.</t>
-  </si>
-  <si>
-    <t>https://scontent-mia5-1.xx.fbcdn.net/v/t51.82787-15/568701564_18530207554016907_1436744588319636248_n.jpg?stp=dst-jpg_s720x720_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=m3ZpUDIWKt0Q7kNvwFkhYaJ&amp;_nc_oc=Adkri1-r14iEP-q_LL6zYrx4apGP3w_JR0PRjOGTfwM_LjcaX3UAsMmQQF1grCA-uf0&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=2aZPtYWGFnHLn5hCDYDSHw&amp;oh=00_AfhrX5vEruiUewgKpR2jiV4INAEhlK-97bSdfGsiLP9FTw&amp;oe=69226552</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid02d3QJZmZ7DjTbBFnXvNAgfs3GzC4SLmTDzjg9Av5FbSV8Ezn2yu6mqAkK5ubMR5VWl</t>
   </si>
   <si>
-    <t>https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-6/576392575_1251759230328925_7276332289751622606_n.jpg?stp=dst-jpg_s590x590_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=toHmtR2wkVAQ7kNvwE6bbB4&amp;_nc_oc=AdkLQK-Fe7xQDwEPpgHZpv2H-64oIcstIQzVioCmz7octUD0g7OUQu2MzJ0PsJ7l63U&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=O8atAQqnSck8pIl-A1ojGg&amp;oh=00_AfhVgF05Mq1HNh3BvQ9aUUGoZLGAjx6FDZ8SxqhvHIKn_Q&amp;oe=69225744</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid026qTHca6YKQgFEa4P1FVKngwFo9sJ1QM9xzZadt6GRQ6WmkpT75ZREFKYmdNM2BBgl</t>
   </si>
   <si>
-    <t>https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/576392575_1251759230328925_7276332289751622606_n.jpg?stp=dst-jpg_s590x590_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=toHmtR2wkVAQ7kNvwE6bbB4&amp;_nc_oc=AdkLQK-Fe7xQDwEPpgHZpv2H-64oIcstIQzVioCmz7octUD0g7OUQu2MzJ0PsJ7l63U&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=O8atAQqnSck8pIl-A1ojGg&amp;oh=00_AfhVgF05Mq1HNh3BvQ9aUUGoZLGAjx6FDZ8SxqhvHIKn_Q&amp;oe=69225744</t>
-  </si>
-  <si>
-    <t>https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-6/574857026_1247199680784880_8556627046862231935_n.jpg?_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=833d8c&amp;_nc_ohc=ZCKO7ErsC9MQ7kNvwHymVZ-&amp;_nc_oc=AdnQebAeYLsucg0vO8KgC-zIC9FrVOXN5o6NQtH8mUQrahjfkC_ImtzDnt5MyXqkemk&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=O8atAQqnSck8pIl-A1ojGg&amp;oh=00_AfiYXD69aC0LLs9mhp3QhN6oFD4pRwJx75Xyuu3JP-iWgA&amp;oe=69226C7D</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid0SUBt9mye27rWXs1hCAkbZHXYBVj4p8qwxTB4LyYjCKAZ8CJixAEnrzhwhcZxF8v9l</t>
   </si>
   <si>
@@ -425,24 +293,15 @@
     <t>Love in Action This Valentine's Day</t>
   </si>
   <si>
-    <t>Love looks like this: sponsors and children building friendships across miles. Share the love of Jesus through child sponsorship – the Valentine that keeps giving.</t>
-  </si>
-  <si>
     <t>Sponsor Today</t>
   </si>
   <si>
-    <t>Yes (seasonal pin)</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid0FeLfqseQfNnZTfnEK4216L6Xg44AN1jJu5fLdMw9Mv57uTup1SqkmNXieYF8LAx8l</t>
   </si>
   <si>
     <t>Org_Spiritual_Feb18</t>
   </si>
   <si>
-    <t>Access to safe water increases school attendance by freeing children from long water-collection trips.</t>
-  </si>
-  <si>
     <t>Org_Impact_Feb6</t>
   </si>
   <si>
@@ -467,9 +326,6 @@
     <t>Meet Samuel from the Dominican Republic. After receiving a Bible through a local distribution effort, Samuel chose to dive deeper into Scripture and strengthen his relationship with God. Along the way, he found a community that encourages and supports him as he continues to grow spiritually.\n\nInspired by what he has learned, Samuel is now sharing his love of the Bible with his family. He dreams of one day building a home where his future partner and children follow God’s will together.\n\nSamuel’s story reflects the hope and transformation that can happen when someone is empowered with access to God’s Word.</t>
   </si>
   <si>
-    <t>When you give a Christmas gift 🎁 that makes room for love ❤️, you help lift families out of extreme poverty and bring real hope to entire communities.\n\nThe 2025 Gift Catalog is filled with meaningful ways to share the tangible love of Jesus with children and families facing overwhelming challenges.\n\nFrom goats that help families earn an income to chickens that provide daily nutrition, clean water that saves lives, school supplies that open doors to learning and Bibles that point families to lasting hope… every gift you choose can spark transformation that lasts for years.\n\nWill you make room this Christmas to help families take a giant step toward overcoming poverty and injustice?\n\nBrowse the Gift Catalog today and start giving gifts that change lives. 🎁 fh.org/shop</t>
-  </si>
-  <si>
     <t>“Once I spent half my day searching for water. Now, I go to school on time, study without exhaustion, and I dream of becoming a nurse. This water has changed everything in my community.” \n— Yvette, age 10, Rwanda 💚\n\nIn Saruheshyi Cell, clean water was once only a dream. Families walked hours each day to collect water from unsafe sources, and children often missed school. Today, more than 1,000 people have access to safe, reliable water right in their community.\n\nYour support makes stories like Yvette’s possible. Thank you for walking with communities toward lasting change.</t>
   </si>
   <si>
@@ -506,15 +362,9 @@
     <t>You trained teachers like Ms. Felista in Uganda, and now more children love learning!\n\nBecause you cared, children in Uganda have teachers who are trained, confident and ready to inspire.\n\nMs. Felista says, “I love teaching children. It’s my passion.”\n\nYour support is making a difference in classrooms around the world.</t>
   </si>
   <si>
-    <t>https://scontent.fric1-2.fna.fbcdn.net/v/t39.30808-6/518110467_1185054653666050_1859326554952778642_n.jpg?stp=dst-jpg_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=sPkJANFEQAIQ7kNvwFXO811&amp;_nc_oc=AdkisFPqOlpRZc6ZN2fKr4THPEGKgjd7FgoZ-oF5ynhhVHzI9FiLywZciVT6eg3jiIw&amp;_nc_zt=23&amp;_nc_ht=scontent.fric1-2.fna&amp;_nc_gid=tmi_ibQ-3NaqKVpwURThDg&amp;oh=00_AfhmxzKFt6y7jKJRUn57RjaiHnqKjb8DsUzI053ikC1gCg&amp;oe=6922600E</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid02fihVUj9XXFEz6kpWaE3iM6CYD23QdLjTpL7BQLfNPKxJFB1QGb6LrK4W35GR4j7jl</t>
   </si>
   <si>
-    <t>https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/561679684_1230930535745128_3002463144427181554_n.jpg?stp=cp6_dst-jpg_s720x720_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=enzvCujp6oQQ7kNvwGCWNss&amp;_nc_oc=AdkJ_fbi6sgGzfdot44NmYQBpxANfI1B0MYq2fNdkjAh_uA1JeCoFQhPDMaF4ZO6_O0&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=r0Tw2aE402xistD0RkJ_9Q&amp;oh=00_AfgB6ZvvWkb4_4ktvu_5galMW25P-ZvpFAWat8NFQCK7VA&amp;oe=69226262</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/foodforthehungry/posts/pfbid02FXMDsgSfp8Fr4NVbaicjBUZ5yBWtECKUBeWxTko3b7Te6ZRnhTpGERpv7yWAzeHxl</t>
   </si>
   <si>
@@ -524,88 +374,183 @@
     <t>“My name is Anthony. I'm 8. I took a picture of a stairway. And why do I think it’s beautiful, the stairway? Because it permits us to arrive at our house safe and sound.”</t>
   </si>
   <si>
-    <t>https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-6/579667014_1252428546928660_7922092204018469006_n.jpg?stp=cp6_dst-jpg_s640x640_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=S9eP81R10LkQ7kNvwF7IKUE&amp;_nc_oc=AdnlokKnTd8LLnkyXqudKsdNTAVKHimZExPE0DaN5wd76SC1YaLxlrs-q5OA8-ndqq8&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=-U3J0aJHFxbOZXd7RkwgKw&amp;oh=00_Afg3RIrAMLNelv8mVEDUZMDVaGmCzbzZVcqsO2YOKVG7cw&amp;oe=69225421</t>
-  </si>
-  <si>
-    <t>You Helped Laurence Learn to Read</t>
-  </si>
-  <si>
-    <t>https://scontent-lax3-1.xx.fbcdn.net/v/t45.1600-4/546308689_1436126284318224_6145979246205999909_n.jpg?stp=cp0_dst-jpg_q75_s526x296_spS444_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=c02adf&amp;_nc_ohc=rIojPpvwO8IQ7kNvwGjIHNj&amp;_nc_oc=AdnoqJojR4hUPGww8YYXaFH42ylRe_DfbR8e4vNwzZKFANU7Rl1ZGmpe1COt93TfYbw&amp;_nc_zt=1&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=dnlocg_9ElyS9ED1gxkwAg&amp;oh=00_Afhur0WXo-b_L4r6phafPLbcKYQNq-4645FNC_bP2hoIVg&amp;oe=69225DAD</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/foodforthehungry/posts/pfbid02xMMPE8MueoKW1baMdYxfRCv2PbkeZdS2uUCRy1g7Ze4KVnoxrgbvJdCXCWCfVWzVl</t>
-  </si>
-  <si>
-    <t>Org_Prog_VietnamStory1</t>
-  </si>
-  <si>
-    <t>Incredible Impact in Vietnam</t>
-  </si>
-  <si>
-    <t>Org_WASH_LachLin</t>
-  </si>
-  <si>
-    <t>Improved Hygiene Transforms Family</t>
-  </si>
-  <si>
     <t>Org_Spiritual_Mar1</t>
   </si>
   <si>
-    <t>Org_Impact_Mar3</t>
-  </si>
-  <si>
-    <t>You helped Laurence learn to read, and feel like a winner! \n\nLaurence, a bright young girl in Rwanda, is so grateful for the reading club and library of books her sponsor helped provide. \n\n“When I come to the reading club, I feel happy and excited to read books with my friends.” \n\nYour support is opening doors to literacy and brighter futures for children like Laurence.</t>
-  </si>
-  <si>
-    <t>Thanks to YOU, Food for the Hungry’s Child Sponsorship in Vietnam has become a powerful force for change in communities!\n\nYour support isn’t just transforming individual lives—it’s creating waves of positive impact across entire villages! This year alone, Vietnam made incredible strides in health, safety, and sustainable livelihoods:\n\nHealth: 680 students from two schools learned how to take care of their teeth and received toothpaste and toothbrushes! Healthy smiles mean healthier futures!\n\nSustainable Livelihoods: We empowered 50 households with training in tea production and processing techniques, and 20 households even received irrigation rigs for their tea fields. These tools and skills mean steady income and brighter futures!\n\nSafety: 286 middle school students participated in traffic safety training, and 30 students received helmets, equipping them to travel safely and confidently.\n\nWith every child sponsored, we take another step toward lasting change and hope for all families in Vietnam.</t>
-  </si>
-  <si>
-    <t>https://hansatechca699-my.sharepoint.com/:i:/g/personal/john_hansatech_ca/EeTs6fIRSPT CsiFMVCIQxSoBxLRuSaTN9s_4UYeHdMeaVA?e=Sw2NNY</t>
-  </si>
-  <si>
-    <t>(from Feed_Organization.xlsx row6)</t>
-  </si>
-  <si>
-    <t>“My family is not as sick as before because we live with good hygiene. I have the courage from Food for the Hungry staff to share with others, even though I cannot read,” says Lach Lin. 💚\n\nBefore Food for the Hungry entered her community, Lach Lin and her family faced constant health issues due to poor hygiene practices.\n\nThanks to FH's hygiene training and support, they now have better health and the confidence to teach others in their community.\n\nYour partnership is bringing lasting health and dignity to families.</t>
-  </si>
-  <si>
-    <t>https://hansatechca699-my.sharepoint.com/:i:/g/personal/john_hansatech_ca/EaCTtfmYzuFDp4SaL5CxxggB11I1-g_DaQhTJNrY0Si8Mg?e=CLX1Zk</t>
-  </si>
-  <si>
-    <t>(from Feed_Organization.xlsx row5 adapted for WASH theme)</t>
-  </si>
-  <si>
-    <t>Org_Spiritual_Mar15</t>
-  </si>
-  <si>
-    <t>Org_Giving_Mar18</t>
-  </si>
-  <si>
-    <t>When you give a Christmas gift 🎁 that makes room for love ❤️, you help lift families out of extreme poverty and bring real hope to entire communities.\n\nThe 2025 Gift Catalog is filled with meaningful ways to share the tangible love of Jesus with children and families facing overwhelming challenges.\n\nFrom goats that help families earn an income to chickens that provide daily nutrition, clean water that saves lives, school supplies that open doors to learning and Bibles that point families to lasting hope… every gift you choose can spark transformation that lasts for years.\n\nBrowse the Gift Catalog today and start giving gifts that change lives. 🎁 fh.org/shop</t>
-  </si>
-  <si>
-    <t>Org_Impact_Mar22</t>
-  </si>
-  <si>
-    <t>When you think of the perfect Christmas gift, you may not think of chickens.\n\nBut you might when you hear Betty and Michal’s inspiring story.\n\n“Now we can be sure to eat two meals a day. We have enough money to buy food. My children are healthy,” Betty says. 🙏 \n\nBefore someone caring made room for gifts of love, their family struggled with hunger and uncertainty. Everything changed when someone like you sent chickens and seeds that helped them grow food, earn income and dream again.\n\nYou can help another family put food on the table now and for years to come.</t>
-  </si>
-  <si>
-    <t>Org_Education_Mar25</t>
-  </si>
-  <si>
-    <t>Org_Prog_HealthSpirituality_Mar29</t>
-  </si>
-  <si>
-    <t>Health, Wisdom, and Faith for Children</t>
-  </si>
-  <si>
-    <t>“Children must grow in health, wisdom and faith to live out the fullness of life that God has planned for them. But, in the world’s hardest places, poor health gets in the way of children’s dreams.”\n\nWe walk with communities around the globe to help children and families reach their God-given potential through better health, education, and spiritual growth.\n\nThank you for partnering with us to bring hope and transformation.</t>
-  </si>
-  <si>
-    <t>https://hansatechca699-my.sharepoint.com/:i:/g/personal/john_hansatech_ca/EXxTOXGhHP1PsagODIj_VZwBKS86dkvDSTdOO5uchljH8w?e=qoemII</t>
-  </si>
-  <si>
-    <t>(from Feed_Organization.xlsx row3)</t>
+    <t>Org_Impact_Dec14</t>
+  </si>
+  <si>
+    <t>Org_Giving_Dec18</t>
+  </si>
+  <si>
+    <t>Meet Blessed Joy, a young girl who finds joy in the simple things—family, faith, and Filipino traditions.  \n\n
+She loves sharing Pancit Palabok, a delicious noodle dish enjoyed on special occasions, and playing Tagu-taguan, a fun twist on hide-and-seek.  \n\n
+Inspired by her mother, she even pretends to cook! On Sundays, her heart is filled with faith as she watches Superbook, learning Bible stories that guide her life. \n\n
+Through food, play, and faith, Blessed Joy’s story is a beautiful reminder of the rich traditions and values that shape her world. 💛 ❤️</t>
+  </si>
+  <si>
+    <t>Happy Sunday from Blessed Joy in the Philippines!</t>
+  </si>
+  <si>
+    <t>When you give a Christmas gift 🎁 that makes room for love ❤️, you help lift families out of extreme poverty and bring real hope to entire communities.\n\nThe 2025 Gift Catalog is filled with meaningful ways to share the tangible love of Jesus with children and families facing overwhelming challenges.\n\nFrom goats that help families earn an income to chickens that provide daily nutrition, clean water that saves lives, school supplies that open doors to learning and Bibles that point families to lasting hope… every gift you choose can spark transformation that lasts for years.\n\nWill you make room this Christmas to help families take a giant step toward overcoming poverty and injustice?\n\nBrowse the Gift Catalog today and start giving gifts that change lives.</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Org_Giving_Dec10</t>
+  </si>
+  <si>
+    <t>Org_Giving_Dec25</t>
+  </si>
+  <si>
+    <t>“My family is not as sick as before because we live with good hygiene. I have the courage from Food for the Hungry staff to share with others, even though I cannot read,” says Lach Lin. 💚\n\nBefore Food for the Hungry entered her community in Cambodia, Lach Lin’s family struggled with many water-related illnesses. “We used to drink from a water tank that did not have a lid and the water did not boil properly, causing family members to experience diarrhea, typhoid fever, and abdominal pain,” she recalls.\n\nThanks to kind supporters like you, Lach Lin and her family now have access to clean water, chickens to raise, and seeds to grow healthy vegetables. These life-changing resources have helped her family live healthier lives and build a brighter future. 💧\n\nThrough your support, families like Lach Lin’s are thriving physically and emotionally, equipped with the tools they need to grow and share hope with others. 🫶🏼</t>
+  </si>
+  <si>
+    <t>Your support makes a difference</t>
+  </si>
+  <si>
+    <t>Org_Impact_Jan26</t>
+  </si>
+  <si>
+    <t>📸 We handed children a camera and asked them to capture something they thought was beautiful. This is what 13-year-old Jayna shared: \n\n“This is my good friend, Leo, who I find to be a beautiful person with a nice smile.” \n\n</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/foodforthehungry/posts/pfbid0hAMZcRp9vgFPnFaLSN5rM4qbZ62sLmMxoDq2BLcvkti6waoUsPsxBDhPq2wBnWCzl</t>
+  </si>
+  <si>
+    <t>💧 Clean Water is a Lifeline 💧\n\nEvery day, over 1,000 children lose their lives to preventable diseases caused by unsafe water and poor sanitation. At Food for the Hungry, we’re on a mission to change that! Through our WASH program, we’re providing clean water, building sanitation systems, and educating communities on hygiene, saving lives and transforming futures.\n\n🌍 Together, we can ensure every child has the chance to grow up healthy, strong, and full of hope. Will you join us?\n\n👉 Donate today to bring clean water and dignity to vulnerable communities.</t>
+  </si>
+  <si>
+    <t>Transform a community</t>
+  </si>
+  <si>
+    <t>https://give.fh.org/s/donate/a0e8W00000jvpwFQAQ/clean-water-for-all</t>
+  </si>
+  <si>
+    <t>“My children were malnourished and we hardly ate one meal a day,” says Betty in Uganda. \n\nBetty and Michal struggled to feed their daughters and pay school fees. But everything changed when kind people like you helped change their lives with gifts from the Food for the Hungry Gift Catalog.\n\nChickens to lay eggs. Seeds to grow vegetables. Tools and training to build a future.\n\n“Now we eat two meals a day. My children are healthy. We have hope,” Betty shares. 🫶</t>
+  </si>
+  <si>
+    <t>https://fh.org/give</t>
+  </si>
+  <si>
+    <t>✨ This is what love looks like across the miles! ❤️ \n\n
+Monica shared this sweet photosof a heartfelt message she received from her sponsored child, JeanPierre. Their friendship is proof that sponsorship doesn’t just change a child’s life—it transforms yours too. 💌\n\n
+Start your own life-changing journey today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you know when communities have access to safe water, it increases school attendance rates?\n\n
+Women and children typically bear the responsibility of collecting water for the family. They can spend up to 6 hours a day collecting water. All around the world, we are walking with communities to create accessible drinking and irrigation water, which ultimately allows kids to stay in school. </t>
+  </si>
+  <si>
+    <t>“Now we can be sure to eat two meals a day. We have enough money to buy food. My children are healthy,” Betty says. 🙏 \n\n
+Isn’t that beautiful? \n\n
+Before someone caring made room for gifts of love, their family struggled with hunger and uncertainty. Everything changed when someone like you sent chickens and seeds that helped them grow food, earn income and dream again.\n\n</t>
+  </si>
+  <si>
+    <t>A Verse of Hope and Strength</t>
+  </si>
+  <si>
+    <t>“We know that God makes all things work together for the good of those who love Him and are chosen for His plan.” \n\n- Romans 8:28 \n\nIn the hardest places, this truth brings light—turning challenges into opportunities for growth, healing, and community transformation. Faith reminds us that no struggle is wasted when rooted in God's purpose.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/foodforthehungry/posts/pfbid02e6LnArhMFczy3Mqyn3tb1XFnnD4LegL1jL11JLd8nX9U8hjvccT7tKX4a7xfysvJl</t>
+  </si>
+  <si>
+    <t>Org_Impact_Mar4</t>
+  </si>
+  <si>
+    <t>Bringing the Bible to Life</t>
+  </si>
+  <si>
+    <t>Across communities, the Bible is coming alive in powerful ways!\n\nThrough local efforts, families are gathering to read Scripture together, discovering hope and guidance for daily life. Children and adults alike are engaging with God's Word in their own languages, leading to stronger faith and united communities.\n\nAccess to the Bible is sparking lasting change—one story at a time.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/foodforthehungry/posts/pfbid02K2NT5Crbp4rrXL3hpzip2o6ZgxJr57eUKqhSw8WsRxLoiY3yR5zr7M3rRdBTfxgfl</t>
+  </si>
+  <si>
+    <t>Org_WASH_Mar8</t>
+  </si>
+  <si>
+    <t>Empowering Through Hygiene</t>
+  </si>
+  <si>
+    <t>At a primary school, students once faced challenges like broken facilities and no handwashing stations.\n\nWith partnership and training, everything changed: new infrastructure, hygiene education, and community involvement brought health and dignity.\n\nNow, children learn in a safer environment, reducing illness and boosting attendance. Simple changes create big impact.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/foodforthehungry/posts/pfbid02hd127RRuBJEWyeLVAMnf1AJ4VBWrPssV8k8pdRHSC5h3aXTKoZiV27rhSLNCCC9wl</t>
+  </si>
+  <si>
+    <t>Org_Education_Mar11</t>
+  </si>
+  <si>
+    <t>Poverty and barriers once limited dreams for girls.\n\nBut with support for education, health, and confidence-building, they're breaking cycles. Young women are pursuing studies, leading in their communities, and inspiring others.\n\nEmpowering girls transforms families and entire villages for generations.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/foodforthehungry/posts/pfbid02c9xsq5SA7r4QZA2GvRxRnmpSzX33fAgsMSuxxgrHxzFY4Vb67GPkg7Db23pUphxBl</t>
+  </si>
+  <si>
+    <t>Org_Impact_Mar15</t>
+  </si>
+  <si>
+    <t>From Desperation to Nourishment</t>
+  </si>
+  <si>
+    <t>Can you imagine feeding your starving baby only sugar water?\n\nFor one mother, that was reality—until community support provided nutrition, training, and hope. Her child grew healthy, and the family thrived.\n\nStories like this show how care and resources restore lives and build resilience.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/foodforthehungry/posts/pfbid0sFB76UnBWJw3LLrrSzuBXf7y9Y6itXbbGAcYvGirJavrngUjtbik6iJ1DXoGD1sdl</t>
+  </si>
+  <si>
+    <t>Org_Education_Mar18</t>
+  </si>
+  <si>
+    <t>The Joy of Learning to Read</t>
+  </si>
+  <si>
+    <t>Have you seen a child's eyes light up when they read their first words?\n\nIn reading clubs, children gain confidence, excitement, and new possibilities. Sponsors and partners make libraries and programs possible, opening worlds through books.\n\nLiteracy unlocks dreams and brighter futures.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/foodforthehungry/posts/pfbid0dpKn2RBbPR2zEjD9DcuEE246KAcssvsA7tWcQqi7U2JTS5uFVPXQLgGNKhxkuJJl</t>
+  </si>
+  <si>
+    <t>Org_Giving_Mar22</t>
+  </si>
+  <si>
+    <t>Meaningful Gifts That Empower</t>
+  </si>
+  <si>
+    <t>“When you empower people, they don’t just change their lives, they transform their communities.” \n\nGifts like training, tools, and resources help families build sustainable futures. From agriculture to health, your support creates ripples of dignity and opportunity.</t>
+  </si>
+  <si>
+    <t>Org_Spiritual_Mar26</t>
+  </si>
+  <si>
+    <t>Clap Your Hands All You Nations</t>
+  </si>
+  <si>
+    <t>“Clap your hands, all you nations; shout to God with cries of joy.” \n\n- Psalm 47:1 \n\nThis call to joyful praise reminds us to celebrate God's goodness, even in difficult times. In communities worldwide, faith brings unity and strength amid challenges.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/foodforthehungry/posts/pfbid02Ldba7ANNTyMs5fhjrycpbKoJhT8F3xqdNBs6beAie4BX8af1c3KtAXtTkmanJ4eTl</t>
+  </si>
+  <si>
+    <t>Org_Impact_Mar29</t>
+  </si>
+  <si>
+    <t>Meet the Girls Changing Rwanda</t>
+  </si>
+  <si>
+    <t>Empower now</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/foodforthehungry/posts/pfbid0U5ZdtHv3ccoc1Nz4J3mUTZ6y5oK2dcoze4MRTUUwXZtrJyajQZj8F9Go3uvqtewal</t>
+  </si>
+  <si>
+    <t>We are Stronger Together! 🤝</t>
+  </si>
+  <si>
+    <t>Grateful for the incredible community and church leaders coming together as Church of the City in Franklin, Tennessee has been building powerful partnership with the community of La Cuneta in the Dominican Republic. \n\n  Excited for the journey ahead as we work hand in hand to bring hope, love, and lasting impact!</t>
   </si>
 </sst>
 </file>
@@ -658,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -683,6 +628,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1018,11 +976,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5370A7A5-E4F2-4D3A-BFE4-977B55C8323A}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,12 +990,15 @@
     <col min="4" max="4" width="37" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="39.28515625" customWidth="1"/>
-    <col min="7" max="7" width="79.140625" customWidth="1"/>
+    <col min="7" max="7" width="170.5703125" customWidth="1"/>
     <col min="8" max="8" width="42.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -1069,12 +1030,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1096,7 +1057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1114,7 +1075,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>22</v>
@@ -1124,97 +1085,93 @@
         <v>46023</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="L2" s="11"/>
       <c r="M2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="5">
-        <v>46025</v>
+        <v>46001</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="L3" s="11"/>
       <c r="M3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>22</v>
@@ -1224,47 +1181,45 @@
         <v>46026</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="L4" s="11"/>
       <c r="M4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>22</v>
@@ -1274,29 +1229,27 @@
         <v>46027</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="L5" s="11"/>
       <c r="M5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1305,16 +1258,16 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>22</v>
@@ -1324,29 +1277,27 @@
         <v>46028</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="L6" s="11"/>
       <c r="M6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="R6" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1355,16 +1306,16 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>22</v>
@@ -1374,47 +1325,45 @@
         <v>46029</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="L7" s="11"/>
       <c r="M7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>22</v>
@@ -1424,179 +1373,171 @@
         <v>46030</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="L8" s="11"/>
       <c r="M8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="5">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="L9" s="11"/>
       <c r="M9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="5">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>24</v>
+      <c r="L10" s="11"/>
+      <c r="M10" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="5">
-        <v>46034</v>
+        <v>46035</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>24</v>
+      <c r="L11" s="11"/>
+      <c r="M11" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1605,657 +1546,627 @@
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="5">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="L12" s="13"/>
       <c r="M12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="5">
-        <v>46036</v>
+        <v>46005</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="L13" s="11"/>
       <c r="M13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="5">
-        <v>46037</v>
+      <c r="J14" s="4">
+        <v>46039</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="L14" s="11"/>
       <c r="M14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="4">
-        <v>46039</v>
+      <c r="J15" s="5">
+        <v>46009</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="L15" s="11"/>
       <c r="M15" s="2" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="5">
-        <v>46040</v>
+      <c r="J16" s="6">
+        <v>46043</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>22</v>
+      <c r="L16" s="11"/>
+      <c r="M16" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="N16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="6">
-        <v>46041</v>
+        <v>46044</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="L17" s="11"/>
       <c r="M17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="s">
-        <v>24</v>
-      </c>
-      <c r="R17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="6">
-        <v>46042</v>
+        <v>46045</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="L18" s="11"/>
       <c r="M18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q18" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="6">
-        <v>46043</v>
+        <v>46015</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>24</v>
+      <c r="L19" s="11"/>
+      <c r="M19" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q19" t="s">
-        <v>24</v>
-      </c>
-      <c r="R19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="6">
-        <v>46044</v>
+        <v>46048</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="L20" s="11"/>
       <c r="M20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q20" t="s">
-        <v>24</v>
-      </c>
-      <c r="R20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="6">
-        <v>46045</v>
+        <v>46051</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>24</v>
+      <c r="L21" s="11"/>
+      <c r="M21" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q21" t="s">
-        <v>24</v>
-      </c>
-      <c r="R21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="6">
-        <v>46047</v>
+        <v>46053</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="L22" s="11"/>
       <c r="M22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>76</v>
+        <v>127</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q22" t="s">
-        <v>24</v>
-      </c>
-      <c r="R22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="6">
-        <v>46048</v>
+        <v>46055</v>
       </c>
       <c r="K23" s="2"/>
-      <c r="L23" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="L23" s="11"/>
       <c r="M23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>24</v>
-      </c>
-      <c r="R23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="6">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="K24" s="2"/>
-      <c r="L24" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="L24" s="11"/>
       <c r="M24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="s">
-        <v>24</v>
-      </c>
-      <c r="R24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -2271,130 +2182,126 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="6">
-        <v>46050</v>
+        <v>46063</v>
       </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="L25" s="11"/>
       <c r="M25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q25" t="s">
-        <v>24</v>
-      </c>
-      <c r="R25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="H26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="6">
-        <v>46051</v>
+        <v>46066</v>
       </c>
       <c r="K26" s="2"/>
-      <c r="L26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>24</v>
+      <c r="L26" s="11"/>
+      <c r="M26" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>25</v>
+        <v>80</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="6">
-        <v>46053</v>
+        <v>46067</v>
       </c>
       <c r="K27" s="2"/>
-      <c r="L27" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="L27" s="11"/>
       <c r="M27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2403,445 +2310,407 @@
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="6">
-        <v>46055</v>
+      <c r="J28" s="7">
+        <v>46071</v>
       </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="L28" s="11"/>
       <c r="M28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="s">
-        <v>24</v>
-      </c>
-      <c r="R28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="6">
-        <v>46059</v>
+      <c r="J29" s="7">
+        <v>46074</v>
       </c>
       <c r="K29" s="2"/>
-      <c r="L29" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="L29" s="11"/>
       <c r="M29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q29" t="s">
-        <v>24</v>
-      </c>
-      <c r="R29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="6">
-        <v>46063</v>
+      <c r="J30" s="7">
+        <v>46077</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="L30" s="11"/>
       <c r="M30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q30" t="s">
-        <v>24</v>
-      </c>
-      <c r="R30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="6">
-        <v>46066</v>
+      <c r="J31" s="7">
+        <v>46080</v>
       </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="M31" s="2" t="s">
+      <c r="L31" s="11"/>
+      <c r="M31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="6">
-        <v>46067</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="9">
+        <v>46082</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" t="s">
+        <v>23</v>
       </c>
       <c r="Q32" t="s">
-        <v>131</v>
-      </c>
-      <c r="R32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="7">
-        <v>46071</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="9">
+        <v>46085</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" t="s">
+        <v>23</v>
       </c>
       <c r="Q33" t="s">
-        <v>24</v>
-      </c>
-      <c r="R33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="7">
-        <v>46074</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="9">
+        <v>46089</v>
+      </c>
+      <c r="M34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" t="s">
+        <v>23</v>
       </c>
       <c r="Q34" t="s">
-        <v>24</v>
-      </c>
-      <c r="R34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="7">
-        <v>46077</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="9">
+        <v>46092</v>
+      </c>
+      <c r="M35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" t="s">
+        <v>23</v>
       </c>
       <c r="Q35" t="s">
-        <v>24</v>
-      </c>
-      <c r="R35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="7">
-        <v>46080</v>
-      </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="9">
+        <v>46096</v>
+      </c>
+      <c r="M36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" t="s">
+        <v>23</v>
       </c>
       <c r="Q36" t="s">
-        <v>24</v>
-      </c>
-      <c r="R36" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -2849,46 +2718,43 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="G37" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H37" t="s">
         <v>22</v>
       </c>
       <c r="J37" s="9">
-        <v>46082</v>
-      </c>
-      <c r="L37" t="s">
-        <v>23</v>
+        <v>46099</v>
       </c>
       <c r="M37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q37" t="s">
-        <v>24</v>
-      </c>
-      <c r="R37" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -2896,46 +2762,43 @@
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G38" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="H38" t="s">
         <v>22</v>
       </c>
       <c r="J38" s="9">
-        <v>46084</v>
-      </c>
-      <c r="L38" t="s">
-        <v>164</v>
+        <v>46103</v>
       </c>
       <c r="M38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N38" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="O38" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="P38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q38" t="s">
-        <v>24</v>
-      </c>
-      <c r="R38" t="s">
-        <v>165</v>
+        <v>23</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -2943,46 +2806,43 @@
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G39" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H39" t="s">
         <v>22</v>
       </c>
       <c r="J39" s="9">
-        <v>46087</v>
-      </c>
-      <c r="L39" t="s">
-        <v>174</v>
+        <v>46107</v>
       </c>
       <c r="M39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R39" t="s">
-        <v>175</v>
+        <v>23</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2990,287 +2850,89 @@
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" t="s">
         <v>168</v>
       </c>
-      <c r="E40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" t="s">
-        <v>176</v>
-      </c>
       <c r="H40" t="s">
         <v>22</v>
       </c>
       <c r="J40" s="9">
-        <v>46090</v>
-      </c>
-      <c r="L40" t="s">
-        <v>177</v>
-      </c>
+        <v>46110</v>
+      </c>
+      <c r="L40" s="8"/>
       <c r="M40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q40" t="s">
-        <v>24</v>
-      </c>
-      <c r="R40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" t="s">
-        <v>150</v>
-      </c>
-      <c r="H41" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" s="9">
-        <v>46096</v>
-      </c>
-      <c r="L41" t="s">
-        <v>40</v>
-      </c>
-      <c r="M41" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" t="s">
-        <v>25</v>
-      </c>
-      <c r="P41" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>24</v>
-      </c>
-      <c r="R41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" t="s">
-        <v>180</v>
-      </c>
-      <c r="E42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" t="s">
-        <v>181</v>
-      </c>
-      <c r="H42" t="s">
-        <v>22</v>
-      </c>
-      <c r="J42" s="9">
-        <v>46099</v>
-      </c>
-      <c r="L42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M42" t="s">
-        <v>22</v>
-      </c>
-      <c r="N42" t="s">
-        <v>75</v>
-      </c>
-      <c r="O42" t="s">
-        <v>76</v>
-      </c>
-      <c r="P42" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>24</v>
-      </c>
-      <c r="R42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" t="s">
-        <v>183</v>
-      </c>
-      <c r="H43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" s="9">
-        <v>46103</v>
-      </c>
-      <c r="L43" t="s">
-        <v>71</v>
-      </c>
-      <c r="M43" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" t="s">
-        <v>25</v>
-      </c>
-      <c r="O43" t="s">
-        <v>25</v>
-      </c>
-      <c r="P43" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>24</v>
-      </c>
-      <c r="R43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" t="s">
-        <v>151</v>
-      </c>
-      <c r="H44" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" s="9">
-        <v>46106</v>
-      </c>
-      <c r="L44" t="s">
-        <v>56</v>
-      </c>
-      <c r="M44" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" t="s">
-        <v>25</v>
-      </c>
-      <c r="P44" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>24</v>
-      </c>
-      <c r="R44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" t="s">
-        <v>186</v>
-      </c>
-      <c r="G45" t="s">
-        <v>187</v>
-      </c>
-      <c r="H45" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="9">
-        <v>46110</v>
-      </c>
-      <c r="L45" t="s">
-        <v>188</v>
-      </c>
-      <c r="M45" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" t="s">
-        <v>25</v>
-      </c>
-      <c r="O45" t="s">
-        <v>25</v>
-      </c>
-      <c r="P45" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>24</v>
-      </c>
-      <c r="R45" t="s">
-        <v>189</v>
+        <v>23</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{710659A1-B217-47B6-90B2-62857EC4EC9B}"/>
     <hyperlink ref="R3" r:id="rId2" xr:uid="{6C9A20CA-F060-46BF-B3D8-3C57BC947C9E}"/>
+    <hyperlink ref="R4" r:id="rId3" xr:uid="{01D30608-442B-4888-8173-78A2D431766A}"/>
+    <hyperlink ref="R5" r:id="rId4" xr:uid="{1A4A4CE7-7F7A-4F47-888D-79EA76D8AC61}"/>
+    <hyperlink ref="R6" r:id="rId5" xr:uid="{0B3E874C-FD75-4080-B7FF-866EDA7C0280}"/>
+    <hyperlink ref="R7" r:id="rId6" xr:uid="{2A57AB64-9F11-4E59-84E7-2A0488F8198A}"/>
+    <hyperlink ref="R8" r:id="rId7" xr:uid="{641F563B-4CBD-4E3B-BC29-0544E86F9C1C}"/>
+    <hyperlink ref="R9" r:id="rId8" xr:uid="{310A4772-8299-4BEE-B05E-BB9B9D96EC75}"/>
+    <hyperlink ref="R10" r:id="rId9" xr:uid="{2CC1B750-307F-40C2-8CD1-4F565C795F4E}"/>
+    <hyperlink ref="R11" r:id="rId10" xr:uid="{8166C4BC-8592-4C83-B21E-9F943ADE8E13}"/>
+    <hyperlink ref="R12" r:id="rId11" xr:uid="{D022DDF8-64FF-43C1-8753-87ED209310E3}"/>
+    <hyperlink ref="R13" r:id="rId12" xr:uid="{44CFE91E-8807-419C-B9FE-CDC9F7248977}"/>
+    <hyperlink ref="R14" r:id="rId13" xr:uid="{78670723-414B-4A95-A24B-6BEBF80322B9}"/>
+    <hyperlink ref="R16" r:id="rId14" xr:uid="{4A2E051B-2060-4B47-856A-944B249E911A}"/>
+    <hyperlink ref="R17" r:id="rId15" xr:uid="{2CA3DF46-4986-4AAA-9CEC-69B3BF1D9C58}"/>
+    <hyperlink ref="R18" r:id="rId16" xr:uid="{5839797C-D5E6-4459-A0F0-E2DEDED8674F}"/>
+    <hyperlink ref="R19" r:id="rId17" xr:uid="{E503E427-F043-4188-A41E-46B298087C8D}"/>
+    <hyperlink ref="R20" r:id="rId18" xr:uid="{276A8862-1D89-48F9-88B7-B640D02E958C}"/>
+    <hyperlink ref="R21" r:id="rId19" xr:uid="{6CFE0BCD-C94D-4010-9FE5-C8A0BAD53EB5}"/>
+    <hyperlink ref="R22" r:id="rId20" xr:uid="{CEC4A33D-FD38-4C3D-96B2-C511E47FF36D}"/>
+    <hyperlink ref="O22" r:id="rId21" xr:uid="{0ED0695B-64B4-44B7-82A5-4C3330DDE6AD}"/>
+    <hyperlink ref="R23" r:id="rId22" xr:uid="{0921E4C2-A214-48CF-93A7-FF049F1BA33D}"/>
+    <hyperlink ref="R24" r:id="rId23" xr:uid="{B87D4ACE-60FB-4A27-A75A-FAB18525A1F8}"/>
+    <hyperlink ref="O26" r:id="rId24" xr:uid="{F0820C50-13A6-4754-B477-35F25EE5B976}"/>
+    <hyperlink ref="O24" r:id="rId25" xr:uid="{305B9997-6086-41CF-9A34-86F30C9A574C}"/>
+    <hyperlink ref="O27" r:id="rId26" xr:uid="{65251953-F6D6-41C3-A294-F10DF66832E6}"/>
+    <hyperlink ref="R25" r:id="rId27" xr:uid="{4C2128E6-4936-44C1-B565-A9058B5A930A}"/>
+    <hyperlink ref="R26" r:id="rId28" xr:uid="{39E35839-1C87-41B6-8BA6-123414F4FCE5}"/>
+    <hyperlink ref="R27" r:id="rId29" xr:uid="{63D1A263-3721-4AB3-AC8E-483D0252E68D}"/>
+    <hyperlink ref="R28" r:id="rId30" xr:uid="{687864D2-C319-42C6-B5C2-AA714E552718}"/>
+    <hyperlink ref="R29" r:id="rId31" xr:uid="{CEA19C9B-2FF4-43F8-BA21-196A09BD2C24}"/>
+    <hyperlink ref="R30" r:id="rId32" xr:uid="{8A06DD4A-F9A7-410D-997F-83A32DC2BB71}"/>
+    <hyperlink ref="R31" r:id="rId33" xr:uid="{5D93E5BE-87B7-46A7-8556-7334D06B9F32}"/>
+    <hyperlink ref="R32" r:id="rId34" xr:uid="{384B22F1-B4C7-4797-8F0A-D20AC9767798}"/>
+    <hyperlink ref="R33" r:id="rId35" xr:uid="{E301D3E4-669F-41D8-9CCB-02C8F4FF267A}"/>
+    <hyperlink ref="R34" r:id="rId36" xr:uid="{D928037F-A4E5-4FDB-ADA4-B2B6091C9FBC}"/>
+    <hyperlink ref="R35" r:id="rId37" xr:uid="{65D14577-91DD-478C-A164-A55F459A648D}"/>
+    <hyperlink ref="R36" r:id="rId38" xr:uid="{FE2BD786-8233-4B1F-81D7-AFBC4A474935}"/>
+    <hyperlink ref="R37" r:id="rId39" xr:uid="{AC7A4D61-C155-4165-8D8E-B7CFA56328D3}"/>
+    <hyperlink ref="R38" r:id="rId40" xr:uid="{4759B8F6-371E-4EAA-B2F6-AECB0226A698}"/>
+    <hyperlink ref="R39" r:id="rId41" xr:uid="{4B5AB1E8-8A1C-49D5-BC9B-CAC711736082}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Content_Calendar.xlsx
+++ b/Content_Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\content calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CCD139-98FE-412A-A38D-7015430C64AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8679989-700A-402E-B4AA-6246D78F7734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39780" yWindow="3480" windowWidth="35550" windowHeight="15345" xr2:uid="{FA463503-EEA9-4E36-AF77-605EC82561F6}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{FA463503-EEA9-4E36-AF77-605EC82561F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feed List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="168">
   <si>
     <t>Category</t>
   </si>
@@ -393,9 +393,6 @@
   </si>
   <si>
     <t>When you give a Christmas gift 🎁 that makes room for love ❤️, you help lift families out of extreme poverty and bring real hope to entire communities.\n\nThe 2025 Gift Catalog is filled with meaningful ways to share the tangible love of Jesus with children and families facing overwhelming challenges.\n\nFrom goats that help families earn an income to chickens that provide daily nutrition, clean water that saves lives, school supplies that open doors to learning and Bibles that point families to lasting hope… every gift you choose can spark transformation that lasts for years.\n\nWill you make room this Christmas to help families take a giant step toward overcoming poverty and injustice?\n\nBrowse the Gift Catalog today and start giving gifts that change lives.</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>Org_Giving_Dec10</t>
@@ -978,9 +975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5370A7A5-E4F2-4D3A-BFE4-977B55C8323A}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1111,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1489,7 +1486,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1709,12 +1706,12 @@
       <c r="K15" s="2"/>
       <c r="L15" s="11"/>
       <c r="M15" s="2" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="3" t="s">
         <v>58</v>
       </c>
       <c r="P15" s="3" t="s">
@@ -1878,7 +1875,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -1926,16 +1923,16 @@
         <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>22</v>
@@ -1983,7 +1980,7 @@
         <v>70</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>22</v>
@@ -2010,7 +2007,7 @@
         <v>23</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="135" x14ac:dyDescent="0.25">
@@ -2031,7 +2028,7 @@
         <v>72</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>22</v>
@@ -2046,10 +2043,10 @@
         <v>23</v>
       </c>
       <c r="N22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>23</v>
@@ -2127,7 +2124,7 @@
         <v>31</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>22</v>
@@ -2145,7 +2142,7 @@
         <v>57</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>23</v>
@@ -2271,7 +2268,7 @@
         <v>84</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>22</v>
@@ -2367,7 +2364,7 @@
         <v>43</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>22</v>
@@ -2415,7 +2412,7 @@
         <v>53</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>22</v>
@@ -2507,10 +2504,10 @@
         <v>20</v>
       </c>
       <c r="F32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" t="s">
         <v>134</v>
-      </c>
-      <c r="G32" t="s">
-        <v>135</v>
       </c>
       <c r="H32" t="s">
         <v>22</v>
@@ -2534,7 +2531,7 @@
         <v>23</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2545,16 +2542,16 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
         <v>137</v>
       </c>
-      <c r="E33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>138</v>
-      </c>
-      <c r="G33" t="s">
-        <v>139</v>
       </c>
       <c r="H33" t="s">
         <v>22</v>
@@ -2578,7 +2575,7 @@
         <v>23</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2589,16 +2586,16 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
         <v>141</v>
       </c>
-      <c r="E34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>142</v>
-      </c>
-      <c r="G34" t="s">
-        <v>143</v>
       </c>
       <c r="H34" t="s">
         <v>22</v>
@@ -2622,7 +2619,7 @@
         <v>23</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -2633,16 +2630,16 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" t="s">
         <v>145</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" t="s">
-        <v>164</v>
-      </c>
-      <c r="G35" t="s">
-        <v>146</v>
       </c>
       <c r="H35" t="s">
         <v>22</v>
@@ -2666,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2677,16 +2674,16 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
         <v>148</v>
       </c>
-      <c r="E36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>149</v>
-      </c>
-      <c r="G36" t="s">
-        <v>150</v>
       </c>
       <c r="H36" t="s">
         <v>22</v>
@@ -2710,7 +2707,7 @@
         <v>23</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -2721,16 +2718,16 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
         <v>152</v>
       </c>
-      <c r="E37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>153</v>
-      </c>
-      <c r="G37" t="s">
-        <v>154</v>
       </c>
       <c r="H37" t="s">
         <v>22</v>
@@ -2754,7 +2751,7 @@
         <v>23</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -2765,16 +2762,16 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
         <v>156</v>
       </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>157</v>
-      </c>
-      <c r="G38" t="s">
-        <v>158</v>
       </c>
       <c r="H38" t="s">
         <v>22</v>
@@ -2786,7 +2783,7 @@
         <v>22</v>
       </c>
       <c r="N38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O38" t="s">
         <v>58</v>
@@ -2809,16 +2806,16 @@
         <v>18</v>
       </c>
       <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
         <v>159</v>
       </c>
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>160</v>
-      </c>
-      <c r="G39" t="s">
-        <v>161</v>
       </c>
       <c r="H39" t="s">
         <v>22</v>
@@ -2842,7 +2839,7 @@
         <v>23</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2853,16 +2850,16 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
       </c>
       <c r="F40" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" t="s">
         <v>167</v>
-      </c>
-      <c r="G40" t="s">
-        <v>168</v>
       </c>
       <c r="H40" t="s">
         <v>22</v>
@@ -2887,7 +2884,7 @@
         <v>23</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2933,6 +2930,7 @@
     <hyperlink ref="R37" r:id="rId39" xr:uid="{AC7A4D61-C155-4165-8D8E-B7CFA56328D3}"/>
     <hyperlink ref="R38" r:id="rId40" xr:uid="{4759B8F6-371E-4EAA-B2F6-AECB0226A698}"/>
     <hyperlink ref="R39" r:id="rId41" xr:uid="{4B5AB1E8-8A1C-49D5-BC9B-CAC711736082}"/>
+    <hyperlink ref="O15" r:id="rId42" xr:uid="{B948F689-9ECB-4E36-809C-C2B9973B6F01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
